--- a/subjects/point.xlsx
+++ b/subjects/point.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Chemical Eng."/>
@@ -29165,7 +29165,7 @@
   </sheetPr>
   <dimension ref="A1:I990"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40625,7 +40625,7 @@
   </sheetPr>
   <dimension ref="A1:I991"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40640,7 +40640,7 @@
     <col min="9" max="9" style="35" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40653,7 +40653,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="14.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -40666,7 +40666,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="27">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -40679,7 +40679,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="34.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -40706,7 +40706,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -40733,7 +40733,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="14.25">
       <c r="A6" s="25">
         <v>2</v>
       </c>
@@ -40760,7 +40760,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="14.25">
       <c r="A7" s="25">
         <v>3</v>
       </c>
@@ -40787,7 +40787,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="14.25">
       <c r="A8" s="20">
         <v>4</v>
       </c>
@@ -40814,7 +40814,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="14.25">
       <c r="A9" s="25">
         <v>5</v>
       </c>
@@ -40841,7 +40841,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="14.25">
       <c r="A10" s="25">
         <v>6</v>
       </c>
@@ -40868,7 +40868,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="14.25">
       <c r="A11" s="20">
         <v>7</v>
       </c>
@@ -40895,7 +40895,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="14.25">
       <c r="A12" s="25">
         <v>8</v>
       </c>
@@ -40922,7 +40922,7 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="14.25">
       <c r="A13" s="25">
         <v>9</v>
       </c>
@@ -40949,7 +40949,7 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
       <c r="A14" s="20">
         <v>10</v>
       </c>
@@ -40976,7 +40976,7 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14.25">
       <c r="A15" s="25">
         <v>11</v>
       </c>
@@ -41003,7 +41003,7 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="14.25">
       <c r="A16" s="25">
         <v>12</v>
       </c>
@@ -41030,7 +41030,7 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="14.25">
       <c r="A17" s="20">
         <v>13</v>
       </c>
@@ -41057,7 +41057,7 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="14.25">
       <c r="A18" s="25">
         <v>14</v>
       </c>
@@ -41084,7 +41084,7 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="14.25">
       <c r="A19" s="25">
         <v>15</v>
       </c>
@@ -41111,7 +41111,7 @@
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="14.25">
       <c r="A20" s="20">
         <v>16</v>
       </c>
@@ -41138,7 +41138,7 @@
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="14.25">
       <c r="A21" s="25">
         <v>17</v>
       </c>
@@ -41165,7 +41165,7 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25">
       <c r="A22" s="25">
         <v>18</v>
       </c>
@@ -41192,7 +41192,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25">
       <c r="A23" s="20">
         <v>19</v>
       </c>
@@ -41219,7 +41219,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25">
       <c r="A24" s="25">
         <v>20</v>
       </c>
@@ -41489,7 +41489,7 @@
       </c>
       <c r="I33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="25">
         <v>30</v>
       </c>
@@ -41516,7 +41516,7 @@
       </c>
       <c r="I34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21">
       <c r="A35" s="20">
         <v>31</v>
       </c>
@@ -41543,7 +41543,7 @@
       </c>
       <c r="I35" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="25">
         <v>32</v>
       </c>
@@ -41570,7 +41570,7 @@
       </c>
       <c r="I36" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="25">
         <v>33</v>
       </c>
@@ -41597,7 +41597,7 @@
       </c>
       <c r="I37" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
       <c r="A38" s="20">
         <v>34</v>
       </c>
@@ -41624,7 +41624,7 @@
       </c>
       <c r="I38" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="25">
         <v>35</v>
       </c>
@@ -41651,7 +41651,7 @@
       </c>
       <c r="I39" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="25">
         <v>36</v>
       </c>
@@ -41678,7 +41678,7 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
       <c r="A41" s="20">
         <v>37</v>
       </c>
@@ -41705,7 +41705,7 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="25">
         <v>38</v>
       </c>
@@ -41734,7 +41734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="25">
         <v>39</v>
       </c>
@@ -41774,7 +41774,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="22">
         <v>40</v>
       </c>
@@ -41797,7 +41797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
       <c r="A46" s="22">
         <v>41</v>
       </c>
@@ -41824,7 +41824,7 @@
       </c>
       <c r="I46" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="7"/>
@@ -41837,7 +41837,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="7"/>
@@ -41850,7 +41850,7 @@
       </c>
       <c r="I48" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="7"/>
@@ -41861,7 +41861,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="7"/>
@@ -41872,7 +41872,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="7"/>
@@ -41883,7 +41883,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="7"/>
@@ -41894,7 +41894,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="7"/>
@@ -41905,7 +41905,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="7"/>
@@ -41916,7 +41916,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="7"/>
@@ -41927,7 +41927,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="7"/>
@@ -41938,7 +41938,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="7"/>
@@ -41949,7 +41949,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="7"/>
@@ -41960,7 +41960,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="7"/>
@@ -41971,7 +41971,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="7"/>
